--- a/RPA_Repository/05.국립공원채용/3.결과/국립공원채용정보_박채연.xlsx
+++ b/RPA_Repository/05.국립공원채용/3.결과/국립공원채용정보_박채연.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\05.국립공원채용\2.작업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF8218-55D1-4461-B9EF-BA044AFC7033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E752F3-F05F-43C9-AAB1-E9DDAA65E571}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="296">
   <si>
     <t>구분</t>
   </si>
@@ -396,18 +396,27 @@
     <t>[무등산] 2023년 무등산국립공원사무소 공무직 대체인력(탐방안전) 공개채용 공고</t>
   </si>
   <si>
+    <t>덕유산</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 여름성수기 한시인력(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>진행중</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>[덕유산] 덕유산국립공원 여름성수기 한시인력(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
     <t>242</t>
   </si>
   <si>
-    <t>덕유산</t>
-  </si>
-  <si>
     <t>[덕유산] 덕유산국립공원 하반기 국립공원지킴이(녹색순찰대) 모집 공고</t>
   </si>
   <si>
-    <t>진행중</t>
-  </si>
-  <si>
     <t>241</t>
   </si>
   <si>
@@ -558,364 +567,358 @@
     <t>[덕유산] 덕유산국립공원 공무직(환경관리-제한경쟁) 직원 채용 공고</t>
   </si>
   <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>북한산</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력(환경관리, 2차) 직원 제한경쟁(장애인) 채용 공고</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 특수산악구조대(휴직자 대체인력) 직원 채용[2차] 공고</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 기간제(환경관리, 2차) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 기간제(수익시설관리, 2차) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(탐방운전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 2024년 국립공원지킴이 채용 일정 변경 안내</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 특수산악구조대(휴직자 대체인력) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 한시인력(탐방로보수) 직원 채용</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(자원보전관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 2024년 국립공원지킴이 채용 공고</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 한시인력(산불감시) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 기간제(자원보전관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력(탐방로보수전담) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 국립공원지킴이 모집 공고(2차)</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(탐방로보수) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(탐방운전) 직원(2차) 채용 공고</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 기간제(산불감시) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 기간제(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 한시인력(산불감시원) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 공무직(수익시설) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>[북한산] 북한산국립공원사무소 공무직(탐방안전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 공무직(환경관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>[북한산도봉] 북한산도봉사무소 기간제(수익시설관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>속리산</t>
+  </si>
+  <si>
+    <t>[속리산]2024년 한시인력(국립공원지킴이) 채용 공고(2차)</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산사무소 기간제(자원보전_자생식물증식장 관리) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산사무소 기간제(탐방운전) 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산사무소 기간제[한시인력(환경관리)]채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산]한시인력(국립공원지킴이) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 직원(청소, 불목이옛길관리, 충청도양반길관리) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 기간제 직원(자원보전) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 한시인력(탐방로 보수전담팀) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 국립공원지킴이(녹색순찰대) 채용 일정 변경 안내(재변경)</t>
+  </si>
+  <si>
+    <t>속리산국립공원 국립공원지킴이(녹색순찰대) 채용 일정 변경 안내</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 한시인력[봄철 산불감시원] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 2024년 속리산국립공원사무소 국립공원지킴이 모집 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 한시인력[가을철 산불감시원] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제근로자[한시인력_탐방안내원] 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산]속리산국립공원 공무직[탐방안전] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자[한시인력_자생식물증식장 관리원] 채용 3차 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 공무직[탐방안전] 직원 채용 재공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자[한시인력_자생식물증식장 관리원] 채용 재공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자[한시인력_자생식물증식장 관리원] 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원사무소 기간제 근로자[국립공원지킴이(녹색순찰대)] 채용 일정 변경 안내</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 직원(충청도양반길관리원) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 공무직[탐방안전] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 2023년 속리산국립공원지킴이 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 공무직[탐방해설] 직원 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자(환경관리, 불목이옛길관리, 충청도양반길관리) 채용 추가접수 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자(환경관리, 불목이옛길관리, 충청도양반길관리) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제근로자[한시인력_탐방로보수팀] 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 속리산국립공원 기간제 근로자(환경관리_청소) 채용 공고</t>
+  </si>
+  <si>
+    <t>[속리산] 공무직(환경관리] 공개 채용 공고[제한(보훈)경쟁]</t>
+  </si>
+  <si>
+    <t>오대산</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(수익시설) 채용 4차</t>
+  </si>
+  <si>
+    <t>[오대산] 기간제(환경관리, 수익시설) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(수익시설) 채용 3차</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(수익시설) 채용 2차</t>
+  </si>
+  <si>
+    <t>[오대산] 기간제(환경관리) 채용 2차</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 채용 2차</t>
+  </si>
+  <si>
+    <t>[오대산] 국립공원지킴이 채용(4차)</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(수익시설) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 기간제(환경관리) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 4차</t>
+  </si>
+  <si>
+    <t>[오대산] 국립공원지킴이 채용(3차)</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 3차</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(탐방로보수) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 2차</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(산불감시) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 추가접수</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(환경관리) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 2024년 오대산국립공원사무소 국립공원지킴이 채용(2차)</t>
+  </si>
+  <si>
+    <t>[오대산] 2024년 오대산국립공원사무소 국립공원지킴이 채용 일정 변경 안내</t>
+  </si>
+  <si>
+    <t>[오대산] 2024년 오대산국립공원사무소 국립공원지킴이 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(환경관리, 산불감시) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(환경관리) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 공무직(탐방해설) 채용</t>
+  </si>
+  <si>
+    <t>[오대산] 한시인력(수익시설, 탐방안내) 채용</t>
+  </si>
+  <si>
     <t>214</t>
   </si>
   <si>
     <t>213</t>
   </si>
   <si>
-    <t>[덕유산] 덕유산국립공원 국립공원지킴이(녹색순찰대) 모집 공고</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>북한산</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 한시인력(환경관리, 2차) 직원 제한경쟁(장애인) 채용 공고</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 특수산악구조대(휴직자 대체인력) 직원 채용[2차] 공고</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 기간제(환경관리, 2차) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 기간제(수익시설관리, 2차) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 기간제(수익시설) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 기간제(탐방운전) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 2024년 국립공원지킴이 채용 일정 변경 안내</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 특수산악구조대(휴직자 대체인력) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 한시인력(탐방로보수) 직원 채용</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 기간제(자원보전관리) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 2024년 국립공원지킴이 채용 공고</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 한시인력(산불감시) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 기간제(자원보전관리) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 한시인력(환경관리) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 한시인력(탐방로보수전담) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 국립공원지킴이 모집 공고(2차)</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 기간제(탐방로보수) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 기간제(환경관리) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 기간제(탐방운전) 직원(2차) 채용 공고</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 기간제(산불감시) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 기간제(환경관리) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 한시인력(산불감시원) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 공무직(수익시설) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>[북한산] 북한산국립공원사무소 공무직(탐방안전) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 공무직(환경관리) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>495</t>
-  </si>
-  <si>
-    <t>[북한산도봉] 북한산도봉사무소 기간제(수익시설관리) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>속리산</t>
-  </si>
-  <si>
-    <t>[속리산]2024년 한시인력(국립공원지킴이) 채용 공고(2차)</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산사무소 기간제(자원보전_자생식물증식장 관리) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산사무소 기간제(탐방운전) 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산사무소 기간제[한시인력(환경관리)]채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산]한시인력(국립공원지킴이) 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제 직원(청소, 불목이옛길관리, 충청도양반길관리) 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원사무소 기간제 직원(자원보전) 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 한시인력(탐방로 보수전담팀) 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 국립공원지킴이(녹색순찰대) 채용 일정 변경 안내(재변경)</t>
-  </si>
-  <si>
-    <t>속리산국립공원 국립공원지킴이(녹색순찰대) 채용 일정 변경 안내</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원사무소 한시인력[봄철 산불감시원] 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 2024년 속리산국립공원사무소 국립공원지킴이 모집 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원사무소 한시인력[가을철 산불감시원] 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제근로자[한시인력_탐방안내원] 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산]속리산국립공원 공무직[탐방안전] 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제 근로자[한시인력_자생식물증식장 관리원] 채용 3차 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 공무직[탐방안전] 직원 채용 재공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제 근로자[한시인력_자생식물증식장 관리원] 채용 재공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제 근로자[한시인력_자생식물증식장 관리원] 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원사무소 기간제 근로자[국립공원지킴이(녹색순찰대)] 채용 일정 변경 안내</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제 직원(충청도양반길관리원) 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 공무직[탐방안전] 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 2023년 속리산국립공원지킴이 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 공무직[탐방해설] 직원 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제 근로자(환경관리, 불목이옛길관리, 충청도양반길관리) 채용 추가접수 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제 근로자(환경관리, 불목이옛길관리, 충청도양반길관리) 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제근로자[한시인력_탐방로보수팀] 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 속리산국립공원 기간제 근로자(환경관리_청소) 채용 공고</t>
-  </si>
-  <si>
-    <t>[속리산] 공무직(환경관리] 공개 채용 공고[제한(보훈)경쟁]</t>
-  </si>
-  <si>
-    <t>오대산</t>
-  </si>
-  <si>
-    <t>[오대산] 기간제(환경관리, 수익시설) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 한시인력(수익시설) 채용 3차</t>
-  </si>
-  <si>
-    <t>[오대산] 한시인력(수익시설) 채용 2차</t>
-  </si>
-  <si>
-    <t>[오대산] 기간제(환경관리) 채용 2차</t>
-  </si>
-  <si>
-    <t>[오대산] 공무직(탐방시설) 채용 2차</t>
-  </si>
-  <si>
-    <t>[오대산] 국립공원지킴이 채용(4차)</t>
-  </si>
-  <si>
-    <t>[오대산] 한시인력(수익시설) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 공무직(탐방시설) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 기간제(환경관리) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 4차</t>
-  </si>
-  <si>
-    <t>[오대산] 국립공원지킴이 채용(3차)</t>
-  </si>
-  <si>
-    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 3차</t>
-  </si>
-  <si>
-    <t>[오대산] 한시인력(탐방로보수) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 2차</t>
-  </si>
-  <si>
-    <t>[오대산] 한시인력(산불감시) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용 추가접수</t>
-  </si>
-  <si>
-    <t>[오대산] 공무직(탐방시설) 제한경쟁 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 한시인력(환경관리) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 2024년 오대산국립공원사무소 국립공원지킴이 채용(2차)</t>
-  </si>
-  <si>
-    <t>[오대산] 2024년 오대산국립공원사무소 국립공원지킴이 채용 일정 변경 안내</t>
-  </si>
-  <si>
-    <t>[오대산] 2024년 오대산국립공원사무소 국립공원지킴이 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 한시인력(환경관리, 산불감시) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 공무직(환경관리) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 공무직(탐방해설) 채용</t>
-  </si>
-  <si>
-    <t>[오대산] 한시인력(수익시설, 탐방안내) 채용</t>
-  </si>
-  <si>
     <t>212</t>
   </si>
   <si>
     <t>211</t>
-  </si>
-  <si>
-    <t>210</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D32A35-27A6-44CE-A629-FD7D314016BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447B4833-D435-4D2F-AA3D-BFA946C9D1BF}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1785,7 +1788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B45E8-1F21-44E6-8513-7C74B66F1EE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FE5DB0-3277-4AC7-83F5-89962EA04A87}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2242,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055DBD9-189B-4068-B9CF-23324468FB2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D50B6-C8E3-4278-865D-43DA1BCD128B}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2273,55 +2276,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -2329,13 +2332,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -2346,7 +2349,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>133</v>
@@ -2360,10 +2363,10 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -2371,13 +2374,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -2385,13 +2388,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -2399,13 +2402,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -2413,13 +2416,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -2427,13 +2430,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -2441,13 +2444,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -2455,13 +2458,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -2469,13 +2472,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -2486,7 +2489,7 @@
         <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>152</v>
@@ -2500,10 +2503,10 @@
         <v>153</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -2514,7 +2517,7 @@
         <v>154</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>155</v>
@@ -2528,10 +2531,10 @@
         <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -2539,13 +2542,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -2553,13 +2556,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
@@ -2567,13 +2570,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -2581,13 +2584,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -2595,13 +2598,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -2612,7 +2615,7 @@
         <v>167</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>168</v>
@@ -2626,10 +2629,10 @@
         <v>169</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
@@ -2637,13 +2640,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -2651,13 +2654,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -2665,13 +2668,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -2682,7 +2685,7 @@
         <v>176</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>177</v>
@@ -2699,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C3EFBD-DC8B-4549-A65A-92F1BF8F1E05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B57294-FF08-4935-8A1C-CF24893D0CD9}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2739,7 +2742,7 @@
         <v>180</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,7 +3159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BBC6BE-4B5B-4E27-B047-E31F0BD25819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914CEB72-A2AA-46BC-BAD5-2C0E9C8BFBFA}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3196,7 +3199,7 @@
         <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3229,13 +3232,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -3243,13 +3246,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -3257,13 +3260,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -3271,13 +3274,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -3285,13 +3288,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -3299,13 +3302,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -3313,13 +3316,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -3327,13 +3330,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -3341,13 +3344,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -3355,13 +3358,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -3369,13 +3372,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -3383,13 +3386,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -3397,13 +3400,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -3411,13 +3414,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -3425,13 +3428,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -3439,13 +3442,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -3453,13 +3456,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -3467,13 +3470,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
@@ -3481,13 +3484,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -3495,13 +3498,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -3509,13 +3512,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -3523,13 +3526,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -3537,13 +3540,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
@@ -3551,13 +3554,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -3565,13 +3568,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -3579,13 +3582,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -3593,13 +3596,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
@@ -3613,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA027DC6-A358-4448-804E-FDD2766ABE39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64320A16-77A1-436E-A4D4-77534086D1F2}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3644,27 +3647,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -3672,13 +3675,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -3686,13 +3689,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -3700,13 +3703,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -3714,13 +3717,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -3728,13 +3731,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -3742,13 +3745,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -3756,13 +3759,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -3770,13 +3773,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -3784,13 +3787,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -3798,13 +3801,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -3812,13 +3815,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -3826,13 +3829,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -3840,13 +3843,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -3854,13 +3857,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -3868,13 +3871,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -3882,13 +3885,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -3896,13 +3899,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -3910,13 +3913,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -3924,13 +3927,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
@@ -3938,13 +3941,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -3952,13 +3955,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -3966,13 +3969,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -3980,13 +3983,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -3994,13 +3997,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
@@ -4008,13 +4011,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -4022,13 +4025,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -4036,13 +4039,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -4050,13 +4053,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
@@ -4070,8 +4073,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2344E1A2-C61F-46CB-82FC-69D55BCDE534}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4844D2E6-BE33-4DCC-B1DB-2DB84FFCE02A}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -4101,44 +4104,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
